--- a/pred_ohlcv/54_21/2019-10-19 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BTC ohlcv.xlsx
@@ -18410,7 +18410,7 @@
         <v>-37.82722480999999</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-40.62402480999999</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-39.64702480999999</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-38.59282480999999</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-39.03752480999999</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-33.22172480999998</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-33.41832480999998</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-29.15682480999998</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-30.02892480999998</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-31.60212480999998</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-34.30474847999998</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-23.89024165999998</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-23.46924165999998</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-19.70493532999998</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-4.654735329999975</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-31.78349603999996</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-35.87322861999996</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-36.77202861999996</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-37.94352861999997</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-37.94352861999997</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-37.94352861999997</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-38.00672861999997</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-39.19682856999997</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-35.80692856999997</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-32.41102851999997</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-34.25622851999996</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-34.10372851999996</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-34.11602851999996</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-30.62632851999997</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-36.34712851999996</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-35.62562851999996</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-36.02462851999996</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-27.59936989999996</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-54.82523301999996</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-51.21801618999996</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-51.02541618999996</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-51.08991618999996</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-50.59411644999996</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-50.65471644999996</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-50.66751644999996</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-50.42481644999996</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-51.61211644999995</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-51.77871644999995</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-51.77461644999995</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-51.33401644999995</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-50.69802271999995</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-50.83821295999995</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-54.12961295999995</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-54.06251295999995</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-55.53051295999995</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-48.84531295999995</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-48.85841295999995</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-48.81991295999995</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-43.83021295999995</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-32.50553914999998</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-30.25013914999997</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-26.31193914999997</v>
       </c>
       <c r="H1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>96.35748794000008</v>
       </c>
       <c r="H1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>96.35748794000008</v>
       </c>
       <c r="H1324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>94.84198794000008</v>
       </c>
       <c r="H1325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>95.23288794000008</v>
       </c>
       <c r="H1326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>94.83858794000008</v>
       </c>
       <c r="H1327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>102.2943687200001</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BTC ohlcv.xlsx
@@ -18358,7 +18358,7 @@
         <v>-30.50272336999999</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-35.82722480999999</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-37.82722480999999</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-40.62402480999999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-39.64702480999999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-38.59282480999999</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-39.03752480999999</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-33.22172480999998</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-33.41832480999998</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-29.15682480999998</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-30.02892480999998</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-31.60212480999998</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-34.30474847999998</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-23.89024165999998</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-23.44674165999998</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-23.46924165999998</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-21.49043532999998</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-19.70493532999998</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-11.98693532999998</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-9.196835329999978</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-11.48443532999998</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-8.254835329999977</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-13.19153532999998</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-4.669035329999977</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-38.00672861999997</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-39.19682856999997</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-35.80692856999997</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-32.41102851999997</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-34.25622851999996</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-34.10372851999996</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-34.11602851999996</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-30.62632851999997</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-36.34712851999996</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-35.62562851999996</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-36.02462851999996</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-27.59936989999996</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-29.00946791999996</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-29.65087667999996</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-29.52727667999996</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-29.00977667999996</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-29.87017667999996</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-29.15457667999996</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-28.93857667999996</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-27.80547667999996</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-25.86467667999996</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-28.30516989999996</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-28.02786989999996</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-32.63286989999996</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-31.30323301999996</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-54.82523301999996</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-49.80543301999995</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-49.78601618999996</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-50.84191618999996</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-51.21801618999996</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-51.02541618999996</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-51.08991618999996</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-50.59411644999996</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-50.65471644999996</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-50.60811644999996</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-50.66751644999996</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-50.42481644999996</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-51.74791644999996</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-51.61211644999995</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-51.77871644999995</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-51.77461644999995</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-51.33401644999995</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-50.69802271999995</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-50.83821295999995</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-54.12961295999995</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-54.06251295999995</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-55.53051295999995</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-48.84531295999995</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-48.85841295999995</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-48.81991295999995</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-43.83021295999995</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-29.65152257999996</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-28.28052109999996</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-42.96342109999996</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-41.88112109999996</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-45.28292109999996</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-44.14662109999996</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-48.69920080999997</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-48.02010080999997</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-47.42590080999997</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-47.42590080999997</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-33.02118051999997</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-25.52808051999997</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>57.63159950000003</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>59.87181897000005</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>103.6007189700001</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>104.7053189700001</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>103.5521189700001</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>94.73462284000007</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>92.61612284000007</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>89.32802284000007</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>92.01270187000009</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>88.37130187000008</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>88.84490187000009</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>94.16178794000008</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>96.35748794000008</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>94.84198794000008</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>94.83858794000008</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>99.38026872000009</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>98.93446872000008</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>102.2943687200001</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
